--- a/TestData/Gamma_SingleGflInfiniteBus.xlsx
+++ b/TestData/Gamma_SingleGflInfiniteBus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD4DD1-84E9-405B-9A92-261A3C4B65D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFF6130-08FB-44C5-A7E6-003CF4BC946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
         <v>-0.5</v>
       </c>
       <c r="F5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -817,11 +817,10 @@
         <v>10000</v>
       </c>
       <c r="E4" s="2">
-        <v>0.05</v>
+        <v>1E-4</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4" si="0">E4/10</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -854,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
